--- a/target/test-classes/testdata/HrmsData.xlsx
+++ b/target/test-classes/testdata/HrmsData.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrii/eclipse-workspace/HrmsFramework/src/test/resources/testdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrii/eclipse-workspace/Hrms/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1619512-A19A-144A-81CF-8DBC8624E49E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9274B5B6-9266-1544-8C1F-4491CCF9E4D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16540" xr2:uid="{5AFEDBB9-2C90-944C-BC15-9B871B4B932D}"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16540" activeTab="1" xr2:uid="{5AFEDBB9-2C90-944C-BC15-9B871B4B932D}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="1" r:id="rId1"/>
+    <sheet name="addEmp" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>LastName</t>
   </si>
@@ -82,6 +83,27 @@
   </si>
   <si>
     <t>Jeff876112125</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>Jason</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Roosevelt</t>
+  </si>
+  <si>
+    <t>Bob</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Guns</t>
   </si>
 </sst>
 </file>
@@ -475,7 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46AC5B5-2DAA-C94B-8774-923EF747DDBF}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -566,4 +588,57 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785E7744-19A7-3345-B9D2-037B72A9706C}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>